--- a/Documentation/Tricorder Pin Assignment.xlsx
+++ b/Documentation/Tricorder Pin Assignment.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Alt Display" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SHARP96" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="SHARP96 New" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Tindie Display" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="SHARP96 OLD" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="66">
   <si>
     <t>PIN #</t>
   </si>
@@ -23,6 +24,9 @@
     <t>Fixed</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Chips Covered</t>
   </si>
   <si>
@@ -35,15 +39,30 @@
     <t>HDC1000</t>
   </si>
   <si>
+    <t>DO NOT USE</t>
+  </si>
+  <si>
     <t>Humidity</t>
   </si>
   <si>
+    <t>SHARP96 LCD Power Control</t>
+  </si>
+  <si>
+    <t>SHARP96 LCD Enable</t>
+  </si>
+  <si>
+    <t>SHARP96 LCD Chip Select</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
     <t>Analog In</t>
   </si>
   <si>
+    <t>SCLK</t>
+  </si>
+  <si>
     <t>LMT70</t>
   </si>
   <si>
@@ -68,69 +87,81 @@
     <t>Magnetometer</t>
   </si>
   <si>
+    <t>Sharp96 Display DC</t>
+  </si>
+  <si>
+    <t>TPL5010</t>
+  </si>
+  <si>
     <t>Display DC</t>
   </si>
   <si>
-    <t>SHARP96 LCD Power Control</t>
-  </si>
-  <si>
-    <t>TPL5010</t>
-  </si>
-  <si>
-    <t>SHARP96 LCD Enable</t>
-  </si>
-  <si>
     <t>System Timer and WatchDog</t>
   </si>
   <si>
-    <t>SHARP96 LCD Chip Select</t>
-  </si>
-  <si>
-    <t>SCLK</t>
-  </si>
-  <si>
     <t>SHARP96 Left Slider 0</t>
   </si>
   <si>
+    <t>FDC2214</t>
+  </si>
+  <si>
+    <t>SHARP96 Left Slider 1</t>
+  </si>
+  <si>
+    <t>SHARP96 Left Slider 2</t>
+  </si>
+  <si>
     <t>LCD Backlight</t>
   </si>
   <si>
+    <t>SHARP96 Right Slider 0</t>
+  </si>
+  <si>
+    <t>microSD</t>
+  </si>
+  <si>
     <t>SCL</t>
   </si>
   <si>
-    <t>SHARP96 Left Slider 1</t>
+    <t>SHARP96 Right Slider 1</t>
   </si>
   <si>
     <t>SDA</t>
   </si>
   <si>
-    <t>SHARP96 Left Slider 2</t>
+    <t>SHARP96 Right Slider 2</t>
   </si>
   <si>
     <t>RESET</t>
   </si>
   <si>
-    <t>SHARP96 Right Slider 0</t>
-  </si>
-  <si>
     <t>SD Card CS</t>
   </si>
   <si>
-    <t>SHARP96 Right Slider 1</t>
+    <t>SPI Sharp96 CS</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SPI CLK</t>
+  </si>
+  <si>
+    <t>SHARP96 LCD External COM Inversion</t>
+  </si>
+  <si>
+    <t>LMT70 - T_ON</t>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
   <si>
     <t>LCD CS</t>
   </si>
   <si>
-    <t>SHARP96 Right Slider 2</t>
-  </si>
-  <si>
-    <t>MISO</t>
-  </si>
-  <si>
-    <t>MOSI</t>
-  </si>
-  <si>
     <t>BUTTON RESET</t>
   </si>
   <si>
@@ -140,18 +171,12 @@
     <t>TPL5010 WAKE</t>
   </si>
   <si>
-    <t>SHARP96 LCD External COM Inversion</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
     <t>TPL5010 DONE</t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
     <t>5V</t>
   </si>
   <si>
@@ -177,9 +202,6 @@
   </si>
   <si>
     <t>BUTTON 1</t>
-  </si>
-  <si>
-    <t>LMT70 - T_ON</t>
   </si>
   <si>
     <t>MAG3110 INT</t>
@@ -195,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -203,10 +225,24 @@
     </font>
     <font/>
     <font>
+      <sz val="36.0"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <strike/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +251,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,14 +285,38 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -290,8 +368,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -303,317 +388,324 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>27.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>30.0</v>
-      </c>
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
         <v>40.0</v>
       </c>
     </row>
@@ -629,6 +721,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFCC0000"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,518 +735,540 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
         <v>40.0</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1000">
+  <conditionalFormatting sqref="C1:C1001">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1163,4 +1280,550 @@
   </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.71"/>
+    <col customWidth="1" min="2" max="2" width="41.29"/>
+    <col customWidth="1" min="3" max="3" width="5.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1000 B2 B6:B8 B10:B17 B25 B27:B31 B42:B1000">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1000 B2 B6:B8 B10:B17 B25 B27:B31 B42:B1000">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/Tricorder Pin Assignment.xlsx
+++ b/Documentation/Tricorder Pin Assignment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="70">
   <si>
     <t>PIN #</t>
   </si>
@@ -39,13 +39,163 @@
     <t>HDC1000</t>
   </si>
   <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>SHARP96 LCD Power Control</t>
+  </si>
+  <si>
+    <t>Analog In</t>
+  </si>
+  <si>
+    <t>LMT70</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>UART RX</t>
+  </si>
+  <si>
+    <t>OPT3001</t>
+  </si>
+  <si>
+    <t>Ambinet Light</t>
+  </si>
+  <si>
+    <t>UART TX</t>
+  </si>
+  <si>
+    <t>MAG3110</t>
+  </si>
+  <si>
+    <t>Magnetometer</t>
+  </si>
+  <si>
+    <t>Sharp96 Display DC</t>
+  </si>
+  <si>
+    <t>TPL5010</t>
+  </si>
+  <si>
+    <t>System Timer and WatchDog</t>
+  </si>
+  <si>
+    <t>SPI Sharp96 CS</t>
+  </si>
+  <si>
+    <t>Alphasense 02</t>
+  </si>
+  <si>
+    <t>SPI CLK</t>
+  </si>
+  <si>
+    <t>LMP91000</t>
+  </si>
+  <si>
+    <t>LMT70 - T_ON</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>PMOD 0</t>
+  </si>
+  <si>
+    <t>SD Card CS</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>BUTTON RESET</t>
+  </si>
+  <si>
+    <t>LED 0</t>
+  </si>
+  <si>
+    <t>TPL5010 WAKE</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>TPL5010 DONE</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>LMT70 - TAO (ADC)</t>
+  </si>
+  <si>
+    <t>Can use other ANALOG IN PIN</t>
+  </si>
+  <si>
+    <t>LMP91000_VOUT</t>
+  </si>
+  <si>
+    <t>LMP91000 MENB</t>
+  </si>
+  <si>
+    <t>PMOD 1</t>
+  </si>
+  <si>
+    <t>PMOD 2</t>
+  </si>
+  <si>
+    <t>PMOD 3</t>
+  </si>
+  <si>
+    <t>BUTTON 0</t>
+  </si>
+  <si>
+    <t>BUTTON 1</t>
+  </si>
+  <si>
+    <t>MAG3110 INT</t>
+  </si>
+  <si>
+    <t>LED 1</t>
+  </si>
+  <si>
+    <t>LED Power</t>
+  </si>
+  <si>
     <t>DO NOT USE</t>
   </si>
   <si>
-    <t>Humidity</t>
-  </si>
-  <si>
-    <t>SHARP96 LCD Power Control</t>
+    <t>Display DC</t>
+  </si>
+  <si>
+    <t>FDC2214</t>
+  </si>
+  <si>
+    <t>SCLK</t>
+  </si>
+  <si>
+    <t>LCD Backlight</t>
+  </si>
+  <si>
+    <t>microSD</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>LCD CS</t>
   </si>
   <si>
     <t>SHARP96 LCD Enable</t>
@@ -54,163 +204,25 @@
     <t>SHARP96 LCD Chip Select</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Analog In</t>
-  </si>
-  <si>
-    <t>SCLK</t>
-  </si>
-  <si>
-    <t>LMT70</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>UART RX</t>
-  </si>
-  <si>
-    <t>OPT3001</t>
-  </si>
-  <si>
-    <t>Ambinet Light</t>
-  </si>
-  <si>
-    <t>UART TX</t>
-  </si>
-  <si>
-    <t>MAG3110</t>
-  </si>
-  <si>
-    <t>Magnetometer</t>
-  </si>
-  <si>
-    <t>Sharp96 Display DC</t>
-  </si>
-  <si>
-    <t>TPL5010</t>
-  </si>
-  <si>
-    <t>Display DC</t>
-  </si>
-  <si>
-    <t>System Timer and WatchDog</t>
-  </si>
-  <si>
     <t>SHARP96 Left Slider 0</t>
   </si>
   <si>
-    <t>FDC2214</t>
-  </si>
-  <si>
     <t>SHARP96 Left Slider 1</t>
   </si>
   <si>
     <t>SHARP96 Left Slider 2</t>
   </si>
   <si>
-    <t>LCD Backlight</t>
-  </si>
-  <si>
     <t>SHARP96 Right Slider 0</t>
   </si>
   <si>
-    <t>microSD</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
     <t>SHARP96 Right Slider 1</t>
   </si>
   <si>
-    <t>SDA</t>
-  </si>
-  <si>
     <t>SHARP96 Right Slider 2</t>
   </si>
   <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>SD Card CS</t>
-  </si>
-  <si>
-    <t>SPI Sharp96 CS</t>
-  </si>
-  <si>
-    <t>MOSI</t>
-  </si>
-  <si>
-    <t>MISO</t>
-  </si>
-  <si>
-    <t>SPI CLK</t>
-  </si>
-  <si>
     <t>SHARP96 LCD External COM Inversion</t>
-  </si>
-  <si>
-    <t>LMT70 - T_ON</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>LCD CS</t>
-  </si>
-  <si>
-    <t>BUTTON RESET</t>
-  </si>
-  <si>
-    <t>LED 0</t>
-  </si>
-  <si>
-    <t>TPL5010 WAKE</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>TPL5010 DONE</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>LMT70 - TAO (ADC)</t>
-  </si>
-  <si>
-    <t>Can use other ANALOG IN PIN</t>
-  </si>
-  <si>
-    <t>PMOD 0</t>
-  </si>
-  <si>
-    <t>PMOD 1</t>
-  </si>
-  <si>
-    <t>PMOD 2</t>
-  </si>
-  <si>
-    <t>PMOD 3</t>
-  </si>
-  <si>
-    <t>BUTTON 0</t>
-  </si>
-  <si>
-    <t>BUTTON 1</t>
-  </si>
-  <si>
-    <t>MAG3110 INT</t>
-  </si>
-  <si>
-    <t>LED 1</t>
-  </si>
-  <si>
-    <t>LED Power</t>
   </si>
 </sst>
 </file>
@@ -225,21 +237,21 @@
     </font>
     <font/>
     <font>
-      <sz val="36.0"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
       <sz val="10.0"/>
     </font>
     <font>
       <strike/>
     </font>
     <font>
+      <strike/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="36.0"/>
       <color rgb="FFFF0000"/>
     </font>
     <font>
-      <strike/>
-      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="6">
@@ -257,12 +269,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -271,6 +277,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
   </fills>
@@ -295,28 +307,28 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -375,6 +387,566 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.71"/>
+    <col customWidth="1" min="2" max="2" width="41.29"/>
+    <col customWidth="1" min="3" max="3" width="5.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1000 B2 B6:B8 B10:B17 B25 B27:B32 B42:B1000">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1000 B2 B6:B8 B10:B17 B25 B27:B32 B42:B1000">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <sheetViews>
@@ -389,8 +961,8 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -420,8 +992,8 @@
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -441,8 +1013,8 @@
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -453,7 +1025,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -464,7 +1036,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -475,7 +1047,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -486,7 +1058,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -497,7 +1069,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -508,7 +1080,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -519,7 +1091,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -530,7 +1102,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -546,7 +1118,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -557,7 +1129,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -577,8 +1149,8 @@
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
+      <c r="B21" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -589,7 +1161,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -605,7 +1177,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -658,7 +1230,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -719,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFCC0000"/>
@@ -736,8 +1308,8 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
@@ -766,12 +1338,12 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -780,17 +1352,17 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -798,17 +1370,17 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -816,35 +1388,35 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -853,13 +1425,13 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -867,7 +1439,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -878,13 +1450,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +1464,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -903,7 +1475,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -914,7 +1486,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -925,13 +1497,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
+      <c r="E14" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +1511,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -950,7 +1522,7 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -961,7 +1533,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -972,7 +1544,7 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -983,10 +1555,10 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -994,27 +1566,27 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>53</v>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -1022,7 +1594,7 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1033,7 +1605,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
@@ -1044,7 +1616,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -1055,13 +1627,13 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1070,10 +1642,10 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1082,10 +1654,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1094,10 +1666,10 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1106,10 +1678,10 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1118,10 +1690,10 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1130,10 +1702,10 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1142,10 +1714,10 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1153,10 +1725,10 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -1164,10 +1736,10 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -1175,10 +1747,10 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36">
@@ -1186,10 +1758,10 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -1197,13 +1769,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
@@ -1211,13 +1783,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -1225,10 +1797,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -1236,13 +1808,13 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -1250,10 +1822,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1261,10 +1833,10 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1280,550 +1852,4 @@
   </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="5.71"/>
-    <col customWidth="1" min="2" max="2" width="41.29"/>
-    <col customWidth="1" min="3" max="3" width="5.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C1000 B2 B6:B8 B10:B17 B25 B27:B31 B42:B1000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1000 B2 B6:B8 B10:B17 B25 B27:B31 B42:B1000">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>